--- a/SuppXLS/Scen_CNETZEROS_CO2_province_and_sector.xlsx
+++ b/SuppXLS/Scen_CNETZEROS_CO2_province_and_sector.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/xiao_li8_mcgill_ca/Documents/Desktop/CAN_TIMES_v2 - Copy - Copy/SuppXLS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E163718F2F89392B62CBC780E18BF97D521CED90" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A22468D-CF9A-493B-BFBA-30C7A2523A7A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18340" windowHeight="8720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
@@ -26,6 +20,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="36">
   <si>
     <t>~UC_Sets: R_S: AllRegions</t>
   </si>
@@ -146,8 +142,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +171,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -180,15 +326,201 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,30 +528,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 10" xfId="49"/>
+    <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -506,36 +1124,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:L40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="10" width="8.7265625"/>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625"/>
+    <col min="2" max="10" width="8.72727272727273"/>
+    <col min="11" max="11" width="11.5454545454545" customWidth="1"/>
+    <col min="12" max="12" width="11.7272727272727"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="10:10">
       <c r="J9" t="s">
         <v>2</v>
       </c>
@@ -583,101 +1201,101 @@
         <v>15</v>
       </c>
       <c r="I11">
+        <v>2020</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>645400.5</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12">
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
         <v>2021</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>653125.11399999994</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>653125.114</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12">
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
         <v>2022</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>672924.49</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13">
+    <row r="14" spans="7:12">
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14">
         <v>2023</v>
       </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>670001.04090000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14">
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>670001.0409</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12">
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15">
         <v>2024</v>
       </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>647597.60660000006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15">
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>647597.6066</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12">
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16">
         <v>2025</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>621098.6226</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>2026</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>606958.46409999998</v>
       </c>
     </row>
     <row r="17" spans="7:12">
@@ -685,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -694,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <v>590565.94110000005</v>
+        <v>606958.4641</v>
       </c>
     </row>
     <row r="18" spans="7:12">
@@ -702,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -711,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>568648.5209</v>
+        <v>590565.9411</v>
       </c>
     </row>
     <row r="19" spans="7:12">
@@ -719,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -728,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>539814.37379999994</v>
+        <v>568648.5209</v>
       </c>
     </row>
     <row r="20" spans="7:12">
@@ -736,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="I20">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -745,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>504890.97560000001</v>
+        <v>539814.3738</v>
       </c>
     </row>
     <row r="21" spans="7:12">
@@ -753,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -762,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>469217.97399999999</v>
+        <v>504890.9756</v>
       </c>
     </row>
     <row r="22" spans="7:12">
@@ -770,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -779,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>433598.60840000003</v>
+        <v>469217.974</v>
       </c>
     </row>
     <row r="23" spans="7:12">
@@ -787,7 +1405,7 @@
         <v>15</v>
       </c>
       <c r="I23">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
@@ -796,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>406307.21419999999</v>
+        <v>433598.6084</v>
       </c>
     </row>
     <row r="24" spans="7:12">
@@ -804,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="I24">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -813,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>375490.39250000002</v>
+        <v>406307.2142</v>
       </c>
     </row>
     <row r="25" spans="7:12">
@@ -821,7 +1439,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -830,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>344000.2634</v>
+        <v>375490.3925</v>
       </c>
     </row>
     <row r="26" spans="7:12">
@@ -838,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -847,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>314759.87040000001</v>
+        <v>344000.2634</v>
       </c>
     </row>
     <row r="27" spans="7:12">
@@ -855,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -864,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>286085.78509999998</v>
+        <v>314759.8704</v>
       </c>
     </row>
     <row r="28" spans="7:12">
@@ -872,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -881,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>259815.45269999999</v>
+        <v>286085.7851</v>
       </c>
     </row>
     <row r="29" spans="7:12">
@@ -889,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
@@ -898,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>236985.06109999999</v>
+        <v>259815.4527</v>
       </c>
     </row>
     <row r="30" spans="7:12">
@@ -906,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J30" t="s">
         <v>16</v>
@@ -915,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>214110.52960000001</v>
+        <v>236985.0611</v>
       </c>
     </row>
     <row r="31" spans="7:12">
@@ -923,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -932,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>188998.65919999999</v>
+        <v>214110.5296</v>
       </c>
     </row>
     <row r="32" spans="7:12">
@@ -940,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
@@ -949,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>167868.29389999999</v>
+        <v>188998.6592</v>
       </c>
     </row>
     <row r="33" spans="7:12">
@@ -957,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
@@ -966,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>146428.90100000001</v>
+        <v>167868.2939</v>
       </c>
     </row>
     <row r="34" spans="7:12">
@@ -974,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -983,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>124693.0842</v>
+        <v>146428.901</v>
       </c>
     </row>
     <row r="35" spans="7:12">
@@ -991,7 +1609,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -1000,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>103677.6725</v>
+        <v>124693.0842</v>
       </c>
     </row>
     <row r="36" spans="7:12">
@@ -1008,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="I36">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -1017,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>82852.521070000003</v>
+        <v>103677.6725</v>
       </c>
     </row>
     <row r="37" spans="7:12">
@@ -1025,7 +1643,7 @@
         <v>15</v>
       </c>
       <c r="I37">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -1034,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>61760.785389999997</v>
+        <v>82852.52107</v>
       </c>
     </row>
     <row r="38" spans="7:12">
@@ -1042,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="I38">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -1051,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>41164.86664</v>
+        <v>61760.78539</v>
       </c>
     </row>
     <row r="39" spans="7:12">
@@ -1059,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -1068,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>20516.166969999998</v>
+        <v>41164.86664</v>
       </c>
     </row>
     <row r="40" spans="7:12">
@@ -1076,42 +1694,61 @@
         <v>15</v>
       </c>
       <c r="I40">
+        <v>2049</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>20516.16697</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12">
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41">
         <v>2050</v>
       </c>
-      <c r="J40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:V250"/>
   <sheetViews>
     <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="2:2">
       <c r="B4" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="2:22">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="2:22">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -1181,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="K11">
-        <v>653125.11399999994</v>
+        <v>653125.114</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -1196,7 +1833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="9:22">
       <c r="I12">
         <v>2022</v>
       </c>
@@ -1216,7 +1853,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="9:22">
       <c r="I13">
         <v>2023</v>
       </c>
@@ -1224,7 +1861,7 @@
         <v>16</v>
       </c>
       <c r="K13">
-        <v>670001.04090000002</v>
+        <v>670001.0409</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>18</v>
@@ -1236,7 +1873,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="9:22">
       <c r="I14">
         <v>2024</v>
       </c>
@@ -1244,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="K14">
-        <v>647597.60660000006</v>
+        <v>647597.6066</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>18</v>
@@ -1256,7 +1893,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="9:22">
       <c r="I15">
         <v>2025</v>
       </c>
@@ -1276,7 +1913,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="9:22">
       <c r="I16">
         <v>2026</v>
       </c>
@@ -1284,7 +1921,7 @@
         <v>16</v>
       </c>
       <c r="K16">
-        <v>606958.46409999998</v>
+        <v>606958.4641</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>18</v>
@@ -1304,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="K17">
-        <v>590565.94110000005</v>
+        <v>590565.9411</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>18</v>
@@ -1344,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="K19">
-        <v>539814.37379999994</v>
+        <v>539814.3738</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>18</v>
@@ -1364,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="K20">
-        <v>504890.97560000001</v>
+        <v>504890.9756</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>18</v>
@@ -1384,7 +2021,7 @@
         <v>16</v>
       </c>
       <c r="K21">
-        <v>469217.97399999999</v>
+        <v>469217.974</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>18</v>
@@ -1404,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="K22">
-        <v>433598.60840000003</v>
+        <v>433598.6084</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>18</v>
@@ -1424,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="K23">
-        <v>406307.21419999999</v>
+        <v>406307.2142</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>18</v>
@@ -1444,7 +2081,7 @@
         <v>16</v>
       </c>
       <c r="K24">
-        <v>375490.39250000002</v>
+        <v>375490.3925</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>18</v>
@@ -1484,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="K26">
-        <v>314759.87040000001</v>
+        <v>314759.8704</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>18</v>
@@ -1504,7 +2141,7 @@
         <v>16</v>
       </c>
       <c r="K27">
-        <v>286085.78509999998</v>
+        <v>286085.7851</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>18</v>
@@ -1524,7 +2161,7 @@
         <v>16</v>
       </c>
       <c r="K28">
-        <v>259815.45269999999</v>
+        <v>259815.4527</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>18</v>
@@ -1544,7 +2181,7 @@
         <v>16</v>
       </c>
       <c r="K29">
-        <v>236985.06109999999</v>
+        <v>236985.0611</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>18</v>
@@ -1564,7 +2201,7 @@
         <v>16</v>
       </c>
       <c r="K30">
-        <v>214110.52960000001</v>
+        <v>214110.5296</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>18</v>
@@ -1584,7 +2221,7 @@
         <v>16</v>
       </c>
       <c r="K31">
-        <v>188998.65919999999</v>
+        <v>188998.6592</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>18</v>
@@ -1604,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="K32">
-        <v>167868.29389999999</v>
+        <v>167868.2939</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>18</v>
@@ -1624,7 +2261,7 @@
         <v>16</v>
       </c>
       <c r="K33">
-        <v>146428.90100000001</v>
+        <v>146428.901</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>18</v>
@@ -1684,7 +2321,7 @@
         <v>16</v>
       </c>
       <c r="K36">
-        <v>82852.521070000003</v>
+        <v>82852.52107</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>18</v>
@@ -1704,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="K37">
-        <v>61760.785389999997</v>
+        <v>61760.78539</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>18</v>
@@ -1744,7 +2381,7 @@
         <v>16</v>
       </c>
       <c r="K39">
-        <v>20516.166969999998</v>
+        <v>20516.16697</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>18</v>
@@ -1776,7 +2413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="9:22">
+    <row r="41" spans="19:22">
       <c r="S41" s="2" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="9:22">
+    <row r="42" spans="19:22">
       <c r="S42" s="2" t="s">
         <v>19</v>
       </c>
@@ -1798,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="9:22">
+    <row r="43" spans="19:22">
       <c r="S43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1809,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="9:22">
+    <row r="44" spans="19:22">
       <c r="S44" s="2" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="9:22">
+    <row r="45" spans="19:22">
       <c r="S45" s="2" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="9:22">
+    <row r="46" spans="19:22">
       <c r="S46" s="2" t="s">
         <v>19</v>
       </c>
@@ -1842,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="9:22">
+    <row r="47" spans="19:22">
       <c r="S47" s="2" t="s">
         <v>19</v>
       </c>
@@ -1853,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="9:22">
+    <row r="48" spans="19:22">
       <c r="S48" s="2" t="s">
         <v>19</v>
       </c>
@@ -4088,12 +4725,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4102,30 +4741,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="10:10">
       <c r="J6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -4178,7 +4817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -4195,28 +4834,28 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>250472.20978646301</v>
+        <v>250472.209786463</v>
       </c>
       <c r="M11">
-        <v>35600.111035639398</v>
+        <v>35600.1110356394</v>
       </c>
       <c r="N11">
-        <v>58094.686690027003</v>
+        <v>58094.686690027</v>
       </c>
       <c r="O11">
-        <v>20245.118088948799</v>
+        <v>20245.1180889488</v>
       </c>
       <c r="P11">
-        <v>147290.56928481601</v>
+        <v>147290.569284816</v>
       </c>
       <c r="Q11">
-        <v>75796.939705001496</v>
+        <v>75796.9397050015</v>
       </c>
       <c r="R11">
-        <v>65625.479409104504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>65625.4794091045</v>
+      </c>
+    </row>
+    <row r="12" spans="7:18">
       <c r="G12" t="s">
         <v>15</v>
       </c>
@@ -4230,28 +4869,28 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>258065.23193920299</v>
+        <v>258065.231939203</v>
       </c>
       <c r="M12">
-        <v>36679.322306079703</v>
+        <v>36679.3223060797</v>
       </c>
       <c r="N12">
         <v>59855.8171698113</v>
       </c>
       <c r="O12">
-        <v>20858.845377358499</v>
+        <v>20858.8453773585</v>
       </c>
       <c r="P12">
         <v>151755.657672956</v>
       </c>
       <c r="Q12">
-        <v>78094.710953878399</v>
+        <v>78094.7109538784</v>
       </c>
       <c r="R12">
-        <v>67614.904580712799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>67614.9045807128</v>
+      </c>
+    </row>
+    <row r="13" spans="7:18">
       <c r="G13" t="s">
         <v>15</v>
       </c>
@@ -4265,28 +4904,28 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>256944.09490040399</v>
+        <v>256944.094900404</v>
       </c>
       <c r="M13">
-        <v>36519.972879245302</v>
+        <v>36519.9728792453</v>
       </c>
       <c r="N13">
-        <v>59595.779918328903</v>
+        <v>59595.7799183289</v>
       </c>
       <c r="O13">
-        <v>20768.226335175201</v>
+        <v>20768.2263351752</v>
       </c>
       <c r="P13">
         <v>151096.371308086</v>
       </c>
       <c r="Q13">
-        <v>77755.436762129393</v>
+        <v>77755.4367621294</v>
       </c>
       <c r="R13">
-        <v>67321.158796630698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>67321.1587966307</v>
+      </c>
+    </row>
+    <row r="14" spans="7:18">
       <c r="G14" t="s">
         <v>15</v>
       </c>
@@ -4300,28 +4939,28 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>248352.42145890999</v>
+        <v>248352.42145891</v>
       </c>
       <c r="M14">
-        <v>35298.821324108998</v>
+        <v>35298.821324109</v>
       </c>
       <c r="N14">
-        <v>57603.021611320801</v>
+        <v>57603.0216113208</v>
       </c>
       <c r="O14">
-        <v>20073.780258490598</v>
+        <v>20073.7802584906</v>
       </c>
       <c r="P14">
-        <v>146044.02448930801</v>
+        <v>146044.024489308</v>
       </c>
       <c r="Q14">
-        <v>75155.457489517794</v>
+        <v>75155.4574895178</v>
       </c>
       <c r="R14">
-        <v>65070.079968343802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>65070.0799683438</v>
+      </c>
+    </row>
+    <row r="15" spans="7:18">
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -4335,28 +4974,28 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>238190.11268023399</v>
+        <v>238190.112680234</v>
       </c>
       <c r="M15">
-        <v>33854.432259119501</v>
+        <v>33854.4322591195</v>
       </c>
       <c r="N15">
-        <v>55245.969126145603</v>
+        <v>55245.9691261456</v>
       </c>
       <c r="O15">
-        <v>19252.383180323399</v>
+        <v>19252.3831803234</v>
       </c>
       <c r="P15">
         <v>140068.063138005</v>
       </c>
       <c r="Q15">
-        <v>72080.178573674799</v>
+        <v>72080.1785736748</v>
       </c>
       <c r="R15">
-        <v>62407.483642497798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>62407.4836424978</v>
+      </c>
+    </row>
+    <row r="16" spans="7:18">
       <c r="G16" t="s">
         <v>15</v>
       </c>
@@ -4373,22 +5012,22 @@
         <v>232767.389421998</v>
       </c>
       <c r="M16">
-        <v>33083.689867086003</v>
+        <v>33083.689867086</v>
       </c>
       <c r="N16">
-        <v>53988.219178706197</v>
+        <v>53988.2191787062</v>
       </c>
       <c r="O16">
-        <v>18814.076380458198</v>
+        <v>18814.0763804582</v>
       </c>
       <c r="P16">
-        <v>136879.22236217401</v>
+        <v>136879.222362174</v>
       </c>
       <c r="Q16">
-        <v>70439.174854372599</v>
+        <v>70439.1748543726</v>
       </c>
       <c r="R16">
-        <v>60986.692035205102</v>
+        <v>60986.6920352051</v>
       </c>
     </row>
     <row r="17" spans="7:18">
@@ -4408,22 +5047,22 @@
         <v>226480.888762669</v>
       </c>
       <c r="M17">
-        <v>32190.177083018902</v>
+        <v>32190.1770830189</v>
       </c>
       <c r="N17">
-        <v>52530.124140970402</v>
+        <v>52530.1241409704</v>
       </c>
       <c r="O17">
-        <v>18305.952352156299</v>
+        <v>18305.9523521563</v>
       </c>
       <c r="P17">
-        <v>133182.43595336899</v>
+        <v>133182.435953369</v>
       </c>
       <c r="Q17">
-        <v>68536.778130053906</v>
+        <v>68536.7781300539</v>
       </c>
       <c r="R17">
-        <v>59339.584677762803</v>
+        <v>59339.5846777628</v>
       </c>
     </row>
     <row r="18" spans="7:18">
@@ -4446,19 +5085,19 @@
         <v>30995.5168624738</v>
       </c>
       <c r="N18">
-        <v>50580.596198652303</v>
+        <v>50580.5961986523</v>
       </c>
       <c r="O18">
-        <v>17626.571402560599</v>
+        <v>17626.5714025606</v>
       </c>
       <c r="P18">
-        <v>128239.69339254301</v>
+        <v>128239.693392543</v>
       </c>
       <c r="Q18">
-        <v>65993.202111036197</v>
+        <v>65993.2021110362</v>
       </c>
       <c r="R18">
-        <v>57137.340150329401</v>
+        <v>57137.3401503294</v>
       </c>
     </row>
     <row r="19" spans="7:18">
@@ -4481,19 +5120,19 @@
         <v>29423.8442742138</v>
       </c>
       <c r="N19">
-        <v>48015.833788140197</v>
+        <v>48015.8337881402</v>
       </c>
       <c r="O19">
-        <v>16732.790562533701</v>
+        <v>16732.7905625337</v>
       </c>
       <c r="P19">
         <v>121737.113947709</v>
       </c>
       <c r="Q19">
-        <v>62646.921188230001</v>
+        <v>62646.92118823</v>
       </c>
       <c r="R19">
-        <v>54240.108538454602</v>
+        <v>54240.1085384546</v>
       </c>
     </row>
     <row r="20" spans="7:18">
@@ -4513,10 +5152,10 @@
         <v>193624.706276071</v>
       </c>
       <c r="M20">
-        <v>27520.262820964399</v>
+        <v>27520.2628209644</v>
       </c>
       <c r="N20">
-        <v>44909.439878167097</v>
+        <v>44909.4398781671</v>
       </c>
       <c r="O20">
         <v>15650.2593514825</v>
@@ -4525,10 +5164,10 @@
         <v>113861.307165858</v>
       </c>
       <c r="Q20">
-        <v>58593.966171009299</v>
+        <v>58593.9661710093</v>
       </c>
       <c r="R20">
-        <v>50731.033936448002</v>
+        <v>50731.033936448</v>
       </c>
     </row>
     <row r="21" spans="7:18">
@@ -4548,10 +5187,10 @@
         <v>179944.179606769</v>
       </c>
       <c r="M21">
-        <v>25575.822482180301</v>
+        <v>25575.8224821803</v>
       </c>
       <c r="N21">
-        <v>41736.369654986498</v>
+        <v>41736.3696549865</v>
       </c>
       <c r="O21">
         <v>14544.4924555256</v>
@@ -4560,7 +5199,7 @@
         <v>105816.452357592</v>
       </c>
       <c r="Q21">
-        <v>54454.017647499299</v>
+        <v>54454.0176474993</v>
       </c>
       <c r="R21">
         <v>47146.6397954477</v>
@@ -4580,25 +5219,25 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>166284.22223905401</v>
+        <v>166284.222239054</v>
       </c>
       <c r="M22">
-        <v>23634.305698951801</v>
+        <v>23634.3056989518</v>
       </c>
       <c r="N22">
-        <v>38568.070288948802</v>
+        <v>38568.0702889488</v>
       </c>
       <c r="O22">
         <v>13440.3881309973</v>
       </c>
       <c r="P22">
-        <v>97783.693358849996</v>
+        <v>97783.69335885</v>
       </c>
       <c r="Q22">
         <v>50320.2937271638</v>
       </c>
       <c r="R22">
-        <v>43567.634956034701</v>
+        <v>43567.6349560347</v>
       </c>
     </row>
     <row r="23" spans="7:18">
@@ -4618,22 +5257,22 @@
         <v>155818.025691255</v>
       </c>
       <c r="M23">
-        <v>22146.724463731702</v>
+        <v>22146.7244637317</v>
       </c>
       <c r="N23">
-        <v>36140.533877627997</v>
+        <v>36140.533877628</v>
       </c>
       <c r="O23">
-        <v>12594.428472506699</v>
+        <v>12594.4284725067</v>
       </c>
       <c r="P23">
-        <v>91629.030336208394</v>
+        <v>91629.0303362084</v>
       </c>
       <c r="Q23">
-        <v>47153.053459868199</v>
+        <v>47153.0534598682</v>
       </c>
       <c r="R23">
-        <v>40825.417898801999</v>
+        <v>40825.417898802</v>
       </c>
     </row>
     <row r="24" spans="7:18">
@@ -4650,25 +5289,25 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>143999.83456012301</v>
+        <v>143999.834560123</v>
       </c>
       <c r="M24">
-        <v>20466.981561844899</v>
+        <v>20466.9815618449</v>
       </c>
       <c r="N24">
-        <v>33399.414966307297</v>
+        <v>33399.4149663073</v>
       </c>
       <c r="O24">
         <v>11639.1900640162</v>
       </c>
       <c r="P24">
-        <v>84679.324813566898</v>
+        <v>84679.3248135669</v>
       </c>
       <c r="Q24">
-        <v>43576.677775905999</v>
+        <v>43576.677775906</v>
       </c>
       <c r="R24">
-        <v>37728.968758235998</v>
+        <v>37728.968758236</v>
       </c>
     </row>
     <row r="25" spans="7:18">
@@ -4688,7 +5327,7 @@
         <v>131923.431351812</v>
       </c>
       <c r="M25">
-        <v>18750.538466247399</v>
+        <v>18750.5384662474</v>
       </c>
       <c r="N25">
         <v>30598.4061784367</v>
@@ -4700,10 +5339,10 @@
         <v>77577.7772806828</v>
       </c>
       <c r="Q25">
-        <v>39922.162943246498</v>
+        <v>39922.1629432465</v>
       </c>
       <c r="R25">
-        <v>34564.866238604402</v>
+        <v>34564.8662386044</v>
       </c>
     </row>
     <row r="26" spans="7:18">
@@ -4720,22 +5359,22 @@
         <v>1</v>
       </c>
       <c r="L26">
-        <v>120709.79755831099</v>
+        <v>120709.797558311</v>
       </c>
       <c r="M26">
         <v>17156.7224955975</v>
       </c>
       <c r="N26">
-        <v>27997.508687870599</v>
+        <v>27997.5086878706</v>
       </c>
       <c r="O26">
         <v>9756.70757304582</v>
       </c>
       <c r="P26">
-        <v>70983.582632884107</v>
+        <v>70983.5826328841</v>
       </c>
       <c r="Q26">
-        <v>36528.736082659503</v>
+        <v>36528.7360826595</v>
       </c>
       <c r="R26">
         <v>31626.8153696316</v>
@@ -4764,16 +5403,16 @@
         <v>25446.9835803235</v>
       </c>
       <c r="O27">
-        <v>8867.8882173854508</v>
+        <v>8867.88821738545</v>
       </c>
       <c r="P27">
-        <v>64517.099784456397</v>
+        <v>64517.0997844564</v>
       </c>
       <c r="Q27">
-        <v>33201.030765573501</v>
+        <v>33201.0307655735</v>
       </c>
       <c r="R27">
-        <v>28745.666637032002</v>
+        <v>28745.666637032</v>
       </c>
     </row>
     <row r="28" spans="7:18">
@@ -4790,25 +5429,25 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>99638.720330143798</v>
+        <v>99638.7203301438</v>
       </c>
       <c r="M28">
-        <v>14161.848574842799</v>
+        <v>14161.8485748428</v>
       </c>
       <c r="N28">
-        <v>23110.269377627999</v>
+        <v>23110.269377628</v>
       </c>
       <c r="O28">
-        <v>8053.5787225067397</v>
+        <v>8053.57872250674</v>
       </c>
       <c r="P28">
-        <v>58592.703169541797</v>
+        <v>58592.7031695418</v>
       </c>
       <c r="Q28">
-        <v>30152.287487646001</v>
+        <v>30152.287487646</v>
       </c>
       <c r="R28">
-        <v>26106.045037690899</v>
+        <v>26106.0450376909</v>
       </c>
     </row>
     <row r="29" spans="7:18">
@@ -4828,19 +5467,19 @@
         <v>90883.3095952531</v>
       </c>
       <c r="M29">
-        <v>12917.424714046099</v>
+        <v>12917.4247140461</v>
       </c>
       <c r="N29">
-        <v>21079.533736657701</v>
+        <v>21079.5337366577</v>
       </c>
       <c r="O29">
-        <v>7345.8981203503999</v>
+        <v>7345.8981203504</v>
       </c>
       <c r="P29">
         <v>53444.0703828392</v>
       </c>
       <c r="Q29">
-        <v>27502.758663147699</v>
+        <v>27502.7586631477</v>
       </c>
       <c r="R29">
         <v>23812.0658877059</v>
@@ -4860,25 +5499,25 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>82110.971294639094</v>
+        <v>82110.9712946391</v>
       </c>
       <c r="M30">
-        <v>11670.594904821801</v>
+        <v>11670.5949048218</v>
       </c>
       <c r="N30">
-        <v>19044.871905121301</v>
+        <v>19044.8719051213</v>
       </c>
       <c r="O30">
-        <v>6636.8493002695404</v>
+        <v>6636.84930026954</v>
       </c>
       <c r="P30">
-        <v>48285.483315004501</v>
+        <v>48285.4833150045</v>
       </c>
       <c r="Q30">
-        <v>24848.107283617901</v>
+        <v>24848.1072836179</v>
       </c>
       <c r="R30">
-        <v>21513.651596525899</v>
+        <v>21513.6515965259</v>
       </c>
     </row>
     <row r="31" spans="7:18">
@@ -4895,10 +5534,10 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>72480.617881281796</v>
+        <v>72480.6178812818</v>
       </c>
       <c r="M31">
-        <v>10301.813709014699</v>
+        <v>10301.8137090147</v>
       </c>
       <c r="N31">
         <v>16811.2014921833</v>
@@ -4907,13 +5546,13 @@
         <v>5858.44900485175</v>
       </c>
       <c r="P31">
-        <v>42622.339136747498</v>
+        <v>42622.3391367475</v>
       </c>
       <c r="Q31">
-        <v>21933.806660676899</v>
+        <v>21933.8066606769</v>
       </c>
       <c r="R31">
-        <v>18990.431315244099</v>
+        <v>18990.4313152441</v>
       </c>
     </row>
     <row r="32" spans="7:18">
@@ -4930,22 +5569,22 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>64377.163923015898</v>
+        <v>64377.1639230159</v>
       </c>
       <c r="M32">
-        <v>9150.0537555555602</v>
+        <v>9150.05375555556</v>
       </c>
       <c r="N32">
-        <v>14931.681128571399</v>
+        <v>14931.6811285714</v>
       </c>
       <c r="O32">
-        <v>5203.4646357142901</v>
+        <v>5203.46463571429</v>
       </c>
       <c r="P32">
-        <v>37857.090538095203</v>
+        <v>37857.0905380952</v>
       </c>
       <c r="Q32">
-        <v>19481.570496031702</v>
+        <v>19481.5704960317</v>
       </c>
       <c r="R32">
         <v>16867.2694230159</v>
@@ -4965,25 +5604,25 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>56155.198481731102</v>
+        <v>56155.1984817311</v>
       </c>
       <c r="M33">
-        <v>7981.4495303983203</v>
+        <v>7981.44953039832</v>
       </c>
       <c r="N33">
-        <v>13024.673134770899</v>
+        <v>13024.6731347709</v>
       </c>
       <c r="O33">
         <v>4538.90124393531</v>
       </c>
       <c r="P33">
-        <v>33022.151079065603</v>
+        <v>33022.1510790656</v>
       </c>
       <c r="Q33">
-        <v>16993.470840820599</v>
+        <v>16993.4708408206</v>
       </c>
       <c r="R33">
-        <v>14713.056689278201</v>
+        <v>14713.0566892782</v>
       </c>
     </row>
     <row r="34" spans="7:18">
@@ -5000,19 +5639,19 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>47819.555051841897</v>
+        <v>47819.5550518419</v>
       </c>
       <c r="M34">
-        <v>6796.6880276729598</v>
+        <v>6796.68802767296</v>
       </c>
       <c r="N34">
-        <v>11091.298594609199</v>
+        <v>11091.2985946092</v>
       </c>
       <c r="O34">
-        <v>3865.1495102425902</v>
+        <v>3865.14951024259</v>
       </c>
       <c r="P34">
-        <v>28120.363103504002</v>
+        <v>28120.363103504</v>
       </c>
       <c r="Q34">
         <v>14470.9703885894</v>
@@ -5035,22 +5674,22 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>39760.185575396798</v>
+        <v>39760.1855753968</v>
       </c>
       <c r="M35">
-        <v>5651.1938888888899</v>
+        <v>5651.19388888889</v>
       </c>
       <c r="N35">
-        <v>9222.0032142857108</v>
+        <v>9222.00321428571</v>
       </c>
       <c r="O35">
-        <v>3213.7283928571401</v>
+        <v>3213.72839285714</v>
       </c>
       <c r="P35">
-        <v>23381.038452380999</v>
+        <v>23381.038452381</v>
       </c>
       <c r="Q35">
-        <v>12032.074900793699</v>
+        <v>12032.0749007937</v>
       </c>
       <c r="R35">
         <v>10417.4480753968</v>
@@ -5073,22 +5712,22 @@
         <v>31773.7805421189</v>
       </c>
       <c r="M36">
-        <v>4516.0703308595403</v>
+        <v>4516.07033085954</v>
       </c>
       <c r="N36">
-        <v>7369.6312542048499</v>
+        <v>7369.63125420485</v>
       </c>
       <c r="O36">
-        <v>2568.2048310107798</v>
+        <v>2568.20483101078</v>
       </c>
       <c r="P36">
-        <v>18684.620654600199</v>
+        <v>18684.6206546002</v>
       </c>
       <c r="Q36">
-        <v>9615.2596330113793</v>
+        <v>9615.25963301138</v>
       </c>
       <c r="R36">
-        <v>8324.9538241943701</v>
+        <v>8324.95382419437</v>
       </c>
     </row>
     <row r="37" spans="7:18">
@@ -5105,25 +5744,25 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>23685.140967922998</v>
+        <v>23685.140967923</v>
       </c>
       <c r="M37">
-        <v>3366.4159751362699</v>
+        <v>3366.41597513627</v>
       </c>
       <c r="N37">
-        <v>5493.5469484366604</v>
+        <v>5493.54694843666</v>
       </c>
       <c r="O37">
         <v>1914.41787597035</v>
       </c>
       <c r="P37">
-        <v>13928.083677349499</v>
+        <v>13928.0836773495</v>
       </c>
       <c r="Q37">
-        <v>7167.5065404687002</v>
+        <v>7167.5065404687</v>
       </c>
       <c r="R37">
-        <v>6205.6734047154796</v>
+        <v>6205.67340471548</v>
       </c>
     </row>
     <row r="38" spans="7:18">
@@ -5140,25 +5779,25 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>15786.646221180001</v>
+        <v>15786.64622118</v>
       </c>
       <c r="M38">
-        <v>2243.7872801677199</v>
+        <v>2243.78728016772</v>
       </c>
       <c r="N38">
-        <v>3661.5649571967701</v>
+        <v>3661.56495719677</v>
       </c>
       <c r="O38">
-        <v>1275.9999093261499</v>
+        <v>1275.99990932615</v>
       </c>
       <c r="P38">
-        <v>9283.3616591554401</v>
+        <v>9283.36165915544</v>
       </c>
       <c r="Q38">
-        <v>4777.2943465109302</v>
+        <v>4777.29434651093</v>
       </c>
       <c r="R38">
-        <v>4136.2122664630097</v>
+        <v>4136.21226646301</v>
       </c>
     </row>
     <row r="39" spans="7:18">
@@ -5175,25 +5814,25 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>7867.9100943650801</v>
+        <v>7867.91009436508</v>
       </c>
       <c r="M39">
-        <v>1118.2816377777799</v>
+        <v>1118.28163777778</v>
       </c>
       <c r="N39">
-        <v>1824.8881671428601</v>
+        <v>1824.88816714286</v>
       </c>
       <c r="O39">
-        <v>635.94587642857198</v>
+        <v>635.945876428572</v>
       </c>
       <c r="P39">
-        <v>4626.7366661904798</v>
+        <v>4626.73666619048</v>
       </c>
       <c r="Q39">
-        <v>2380.9567837301602</v>
+        <v>2380.95678373016</v>
       </c>
       <c r="R39">
-        <v>2061.4477443650799</v>
+        <v>2061.44774436508</v>
       </c>
     </row>
     <row r="40" spans="7:18">
@@ -5233,5 +5872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SuppXLS/Scen_CNETZEROS_CO2_province_and_sector.xlsx
+++ b/SuppXLS/Scen_CNETZEROS_CO2_province_and_sector.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8710" firstSheet="9" activeTab="12"/>
+    <workbookView windowWidth="18340" windowHeight="8720" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ELECO2" sheetId="21" r:id="rId1"/>
@@ -3100,7 +3100,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -5141,8 +5141,8 @@
   </sheetPr>
   <dimension ref="B4:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:12">
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:12">
@@ -5265,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="4:12">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:12">
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:12">
@@ -5325,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:12">
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:12">
@@ -5365,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:12">
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:12">
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:12">
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:12">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="4:12">
@@ -5465,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="4:12">
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="4:12">
@@ -5505,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="4:12">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:12">
@@ -5545,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="4:12">
@@ -5565,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:12">
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="4:12">
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:12">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:12">
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:12">
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:12">
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="4:12">
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:12">
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:12">
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:12">
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="4:12">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="4:12">
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:12">
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="16" spans="4:12">
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="4:12">
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="4:12">
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="4:12">
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:12">
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="4:12">
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="4:12">
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="4:12">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="4:12">
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:12">
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="4:12">
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="4:12">
@@ -6064,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="4:12">
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="4:12">
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="4:12">
@@ -6124,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:12">
@@ -6144,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="4:12">
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="4:12">
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="4:12">
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="4:12">
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="4:12">
@@ -6244,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="4:12">
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="4:12">
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="4:12">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="4:12">
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="4:12">
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="4:12">
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="4:12">
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="4:12">
@@ -6404,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="4:12">
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="4:12">
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="16" spans="4:12">
@@ -6463,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="4:12">
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="4:12">
@@ -6503,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="4:12">
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="4:12">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="4:12">
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="4:12">
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="4:12">
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="4:12">
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="4:12">
@@ -6643,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="4:12">
@@ -6663,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="4:12">
@@ -6683,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="4:12">
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="4:12">
@@ -6723,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="4:12">
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="4:12">
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="4:12">
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="4:12">
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="4:12">
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="4:12">
@@ -6843,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="4:12">
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="4:12">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="4:12">
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="4:12">
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="4:12">
@@ -6943,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="4:12">
@@ -6963,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="4:12">
@@ -6983,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="4:12">
@@ -7003,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="4:12">
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="4:12">
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="4:12">
@@ -7063,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="16" spans="4:12">
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="4:12">
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="4:12">
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="4:12">
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="4:12">
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="4:12">
@@ -7182,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="4:12">
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="4:12">
@@ -7222,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="4:12">
@@ -7242,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="L112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="4:12">
@@ -7262,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="L113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="4:12">
@@ -7282,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="L114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="4:12">
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="4:12">
@@ -7322,7 +7322,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="4:12">
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="L117" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="4:12">
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="4:12">
@@ -7382,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="4:12">
@@ -7402,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="4:12">
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="4:12">
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="L122" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="4:12">
@@ -7462,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="L123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="4:12">
@@ -7482,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="L124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="4:12">
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="L125" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="4:12">
@@ -7522,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="L126" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="4:12">
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="L127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="4:12">
@@ -7562,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="L128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="4:12">
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="4:12">
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="4:12">
@@ -7622,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="4:12">
@@ -7642,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="4:12">
@@ -7662,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="4:12">
@@ -7682,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" ht="16" spans="7:7">
@@ -7701,8 +7701,8 @@
   </sheetPr>
   <dimension ref="B4:L164"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -16337,7 +16337,7 @@
   <sheetPr/>
   <dimension ref="B4:N41"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
